--- a/Test_Data.xlsx
+++ b/Test_Data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdsalekhan/Downloads/Selenium_Main_Assignmnt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/submg/PycharmProjects/ProductHQM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C552632-2739-3344-A441-D8AC214706C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D00A747-E144-DF40-8229-7B9BDB3FCC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15700" xr2:uid="{E7AFE29E-E74F-8642-80B4-6E9C778320BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Registration" sheetId="1" r:id="rId1"/>
+    <sheet name="BaseDatas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,28 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
-  <si>
-    <t>test_Login</t>
-  </si>
-  <si>
-    <t>test_Cart_Functionality</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.com/</t>
-  </si>
-  <si>
-    <t>alfotech512@gmail.com</t>
-  </si>
-  <si>
-    <t>test123!</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>password</t>
   </si>
@@ -63,106 +43,91 @@
     <t>name</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>grocery_page_title</t>
-  </si>
-  <si>
-    <t>Flipkart Grocery Store - Buy Groceries Online &amp;amp; Get Rs.1 Deals at Flipkart.com</t>
-  </si>
-  <si>
-    <t>logged_in_user</t>
-  </si>
-  <si>
-    <t>Staples</t>
-  </si>
-  <si>
-    <t>Dairy</t>
-  </si>
-  <si>
-    <t>Cookies</t>
-  </si>
-  <si>
-    <t>Origo Fresh Gujarat Toor Dal (Split)</t>
-  </si>
-  <si>
-    <t>Amul Processed cheese Cubes</t>
-  </si>
-  <si>
-    <t>UNIBIC Assorted Cookies</t>
-  </si>
-  <si>
-    <t>quantity_in_cart</t>
-  </si>
-  <si>
-    <t>My Cart (3)</t>
-  </si>
-  <si>
-    <t>test_wishlist</t>
-  </si>
-  <si>
-    <t>kids_dress1</t>
-  </si>
-  <si>
-    <t>PPX Girls Midi/Knee Length Casual Dress</t>
-  </si>
-  <si>
-    <t>women_saree_1</t>
-  </si>
-  <si>
-    <t>Ek-Pal Checkered Daily Wear Cotton Blend, Poly Silk Saree</t>
-  </si>
-  <si>
-    <t>search_filter</t>
-  </si>
-  <si>
-    <t>filter_product</t>
-  </si>
-  <si>
-    <t>Tata BESAN 1 KG</t>
-  </si>
-  <si>
-    <t>search_product</t>
-  </si>
-  <si>
-    <t>Besan</t>
-  </si>
-  <si>
-    <t>add_address</t>
-  </si>
-  <si>
-    <t>Address_name</t>
-  </si>
-  <si>
-    <t>Address_phone</t>
-  </si>
-  <si>
-    <t>pincode</t>
-  </si>
-  <si>
-    <t>locality</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>Home_Test</t>
-  </si>
-  <si>
-    <t>9738687737</t>
-  </si>
-  <si>
-    <t>560051</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Jpnagar 5th cross</t>
-  </si>
-  <si>
-    <t>test1</t>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>kakashi</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>kakashi@gmail.com</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>newPassword</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>hatake</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>test_name</t>
+  </si>
+  <si>
+    <t>itachi</t>
+  </si>
+  <si>
+    <t>itachi@gmail.com</t>
+  </si>
+  <si>
+    <t>uchiha</t>
+  </si>
+  <si>
+    <t>naruto</t>
+  </si>
+  <si>
+    <t>naruto@gmail.com</t>
+  </si>
+  <si>
+    <t>uzumaki</t>
+  </si>
+  <si>
+    <t>madara</t>
+  </si>
+  <si>
+    <t>madara@gmail.com</t>
+  </si>
+  <si>
+    <t>hashirama</t>
+  </si>
+  <si>
+    <t>hashirama@gmail.com</t>
+  </si>
+  <si>
+    <t>senju</t>
+  </si>
+  <si>
+    <t>test_Registration_kakashi</t>
+  </si>
+  <si>
+    <t>test_Registration_itachi</t>
+  </si>
+  <si>
+    <t>test_Registration_naruto</t>
+  </si>
+  <si>
+    <t>test_Registration_madara</t>
+  </si>
+  <si>
+    <t>test_Registration_hashirama</t>
   </si>
 </sst>
 </file>
@@ -529,291 +494,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5752FA-5421-0E44-B733-D04398AC9CA1}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24" style="2" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="34.83203125" style="2" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="10" width="14.83203125" style="2" customWidth="1"/>
-    <col min="11" max="14" width="10.83203125" style="2"/>
-    <col min="15" max="15" width="17.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="24" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="34.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="14.83203125" style="2" customWidth="1"/>
+    <col min="12" max="15" width="10.83203125" style="2"/>
+    <col min="16" max="16" width="17.33203125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>41</v>
+      <c r="H6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{01CEC971-A1CD-CF41-87D5-488D39EE8B55}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{F750CA2F-7EE9-0C47-8648-FAF6F9D4CD3A}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{5E3A25ED-6342-9F46-8C50-FAC52D4B17C0}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{5458759F-3753-614A-AC97-E8694CDD13CA}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{014B8F4D-3FBF-424A-A034-63E4C2B5263F}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{07F37C69-0585-7546-8F2E-760C880096CE}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{3E30B6A8-79E6-A146-8F56-EF769FC08383}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{61273A22-DD9D-AD4A-8299-D5FD4B219DE3}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{1CF1FD81-A349-E94B-9B1E-5AEB45045FE7}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{E2C6252D-3B2E-4149-A5F8-9B57C96C1884}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5B31E6C8-0185-6449-998B-91DC2B64A7CB}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7C5878D0-F9E5-1944-8389-E120F07784B9}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{715A55E8-DE78-AC4A-BBBB-AE701A52D2A2}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E8336E6D-ADE5-D248-A983-2CE1388B85EF}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{E7B36BAB-48C8-DD47-91C7-EA79F5FFFC2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325C1540-3695-264F-933D-6F829BAA9D53}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>